--- a/static/NSE/portfolio shares.xlsx
+++ b/static/NSE/portfolio shares.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23CDAB8-D465-4A1B-B578-8B9C4C260E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BAE110-2A48-4AC2-8BA6-4F71EE0E07CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$205</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="432">
   <si>
     <t>Symbol</t>
   </si>
@@ -1322,6 +1322,9 @@
   </si>
   <si>
     <t>Mid</t>
+  </si>
+  <si>
+    <t>Display</t>
   </si>
 </sst>
 </file>
@@ -1708,19 +1711,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:E205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1731,10 +1737,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1745,10 +1754,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1759,10 +1771,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1773,10 +1788,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1787,10 +1805,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1801,10 +1822,13 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1815,10 +1839,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1829,10 +1856,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1843,10 +1873,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1857,10 +1890,13 @@
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1871,10 +1907,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1885,10 +1924,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1899,10 +1941,13 @@
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1913,10 +1958,13 @@
         <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1927,10 +1975,13 @@
         <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1941,10 +1992,13 @@
         <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1955,10 +2009,13 @@
         <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1969,10 +2026,13 @@
         <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1983,10 +2043,13 @@
         <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1997,10 +2060,13 @@
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2011,10 +2077,13 @@
         <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -2025,10 +2094,13 @@
         <v>420</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -2039,10 +2111,13 @@
         <v>421</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2053,10 +2128,13 @@
         <v>418</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>88</v>
       </c>
@@ -2067,10 +2145,13 @@
         <v>402</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -2081,10 +2162,13 @@
         <v>405</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -2095,10 +2179,13 @@
         <v>45</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -2109,10 +2196,13 @@
         <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -2123,10 +2213,13 @@
         <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -2137,10 +2230,13 @@
         <v>48</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -2151,10 +2247,13 @@
         <v>49</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -2165,10 +2264,13 @@
         <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -2179,10 +2281,13 @@
         <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -2193,10 +2298,13 @@
         <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -2207,10 +2315,13 @@
         <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -2221,10 +2332,13 @@
         <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -2235,10 +2349,13 @@
         <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -2249,10 +2366,13 @@
         <v>56</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -2263,10 +2383,13 @@
         <v>57</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -2277,10 +2400,13 @@
         <v>58</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -2291,10 +2417,13 @@
         <v>410</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -2305,10 +2434,13 @@
         <v>411</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -2319,10 +2451,13 @@
         <v>412</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2333,10 +2468,13 @@
         <v>73</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -2347,10 +2485,13 @@
         <v>74</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -2361,10 +2502,13 @@
         <v>75</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -2375,10 +2519,13 @@
         <v>76</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -2389,10 +2536,13 @@
         <v>77</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -2403,10 +2553,13 @@
         <v>78</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -2417,10 +2570,13 @@
         <v>79</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -2431,10 +2587,13 @@
         <v>97</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -2445,10 +2604,13 @@
         <v>80</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -2459,10 +2621,13 @@
         <v>81</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -2473,10 +2638,13 @@
         <v>82</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -2487,10 +2655,13 @@
         <v>83</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -2501,10 +2672,13 @@
         <v>84</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -2515,10 +2689,13 @@
         <v>85</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -2529,10 +2706,13 @@
         <v>86</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -2543,10 +2723,13 @@
         <v>393</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -2557,10 +2740,13 @@
         <v>106</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>105</v>
       </c>
@@ -2571,10 +2757,13 @@
         <v>107</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -2585,10 +2774,13 @@
         <v>108</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -2599,10 +2791,13 @@
         <v>109</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>105</v>
       </c>
@@ -2613,10 +2808,13 @@
         <v>110</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>105</v>
       </c>
@@ -2627,10 +2825,13 @@
         <v>111</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -2641,10 +2842,13 @@
         <v>112</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>105</v>
       </c>
@@ -2655,10 +2859,13 @@
         <v>113</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>105</v>
       </c>
@@ -2669,10 +2876,13 @@
         <v>114</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -2683,10 +2893,13 @@
         <v>115</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>105</v>
       </c>
@@ -2697,10 +2910,13 @@
         <v>116</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>105</v>
       </c>
@@ -2711,10 +2927,13 @@
         <v>117</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -2725,10 +2944,13 @@
         <v>118</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>105</v>
       </c>
@@ -2739,10 +2961,13 @@
         <v>119</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>105</v>
       </c>
@@ -2753,10 +2978,13 @@
         <v>120</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>105</v>
       </c>
@@ -2767,10 +2995,13 @@
         <v>413</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -2781,10 +3012,13 @@
         <v>137</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>136</v>
       </c>
@@ -2795,10 +3029,13 @@
         <v>138</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>136</v>
       </c>
@@ -2809,10 +3046,13 @@
         <v>139</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>136</v>
       </c>
@@ -2823,10 +3063,13 @@
         <v>140</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>136</v>
       </c>
@@ -2837,10 +3080,13 @@
         <v>141</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>136</v>
       </c>
@@ -2851,10 +3097,13 @@
         <v>142</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>136</v>
       </c>
@@ -2865,10 +3114,13 @@
         <v>143</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>136</v>
       </c>
@@ -2879,10 +3131,13 @@
         <v>144</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>136</v>
       </c>
@@ -2893,10 +3148,13 @@
         <v>414</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>136</v>
       </c>
@@ -2907,10 +3165,13 @@
         <v>415</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>136</v>
       </c>
@@ -2921,10 +3182,13 @@
         <v>145</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>136</v>
       </c>
@@ -2935,10 +3199,13 @@
         <v>146</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>163</v>
       </c>
@@ -2949,10 +3216,13 @@
         <v>157</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>163</v>
       </c>
@@ -2963,10 +3233,13 @@
         <v>158</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>163</v>
       </c>
@@ -2977,10 +3250,13 @@
         <v>159</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>163</v>
       </c>
@@ -2991,10 +3267,13 @@
         <v>160</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>163</v>
       </c>
@@ -3005,10 +3284,13 @@
         <v>161</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>163</v>
       </c>
@@ -3019,10 +3301,13 @@
         <v>162</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>170</v>
       </c>
@@ -3033,10 +3318,13 @@
         <v>171</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>170</v>
       </c>
@@ -3047,10 +3335,13 @@
         <v>426</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>170</v>
       </c>
@@ -3061,10 +3352,13 @@
         <v>424</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>170</v>
       </c>
@@ -3075,10 +3369,13 @@
         <v>172</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>170</v>
       </c>
@@ -3089,10 +3386,13 @@
         <v>173</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>170</v>
       </c>
@@ -3103,10 +3403,13 @@
         <v>174</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>170</v>
       </c>
@@ -3117,10 +3420,13 @@
         <v>175</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>170</v>
       </c>
@@ -3131,10 +3437,13 @@
         <v>176</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>170</v>
       </c>
@@ -3145,10 +3454,13 @@
         <v>177</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>170</v>
       </c>
@@ -3159,10 +3471,13 @@
         <v>178</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>170</v>
       </c>
@@ -3173,10 +3488,13 @@
         <v>179</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>170</v>
       </c>
@@ -3187,10 +3505,13 @@
         <v>180</v>
       </c>
       <c r="D105" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>170</v>
       </c>
@@ -3201,10 +3522,13 @@
         <v>181</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>170</v>
       </c>
@@ -3215,10 +3539,13 @@
         <v>182</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>170</v>
       </c>
@@ -3229,10 +3556,13 @@
         <v>183</v>
       </c>
       <c r="D108" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>170</v>
       </c>
@@ -3243,10 +3573,13 @@
         <v>184</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>170</v>
       </c>
@@ -3257,10 +3590,13 @@
         <v>185</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>201</v>
       </c>
@@ -3271,10 +3607,13 @@
         <v>202</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>201</v>
       </c>
@@ -3285,10 +3624,13 @@
         <v>203</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>201</v>
       </c>
@@ -3299,10 +3641,13 @@
         <v>204</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>201</v>
       </c>
@@ -3313,10 +3658,13 @@
         <v>205</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>201</v>
       </c>
@@ -3327,10 +3675,13 @@
         <v>206</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>201</v>
       </c>
@@ -3341,10 +3692,13 @@
         <v>207</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>201</v>
       </c>
@@ -3355,10 +3709,13 @@
         <v>208</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>201</v>
       </c>
@@ -3369,10 +3726,13 @@
         <v>209</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>201</v>
       </c>
@@ -3383,10 +3743,13 @@
         <v>210</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>201</v>
       </c>
@@ -3397,10 +3760,13 @@
         <v>211</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>201</v>
       </c>
@@ -3411,10 +3777,13 @@
         <v>212</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>201</v>
       </c>
@@ -3425,10 +3794,13 @@
         <v>213</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>201</v>
       </c>
@@ -3439,10 +3811,13 @@
         <v>214</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>201</v>
       </c>
@@ -3453,10 +3828,13 @@
         <v>215</v>
       </c>
       <c r="D124" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>201</v>
       </c>
@@ -3467,10 +3845,13 @@
         <v>216</v>
       </c>
       <c r="D125" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>201</v>
       </c>
@@ -3481,10 +3862,13 @@
         <v>217</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>201</v>
       </c>
@@ -3495,10 +3879,13 @@
         <v>218</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>201</v>
       </c>
@@ -3509,10 +3896,13 @@
         <v>219</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>201</v>
       </c>
@@ -3523,10 +3913,13 @@
         <v>220</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>201</v>
       </c>
@@ -3537,10 +3930,13 @@
         <v>221</v>
       </c>
       <c r="D130" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>242</v>
       </c>
@@ -3551,10 +3947,13 @@
         <v>243</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>242</v>
       </c>
@@ -3565,10 +3964,13 @@
         <v>244</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>242</v>
       </c>
@@ -3579,10 +3981,13 @@
         <v>245</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>242</v>
       </c>
@@ -3593,10 +3998,13 @@
         <v>246</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>242</v>
       </c>
@@ -3607,10 +4015,13 @@
         <v>247</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>242</v>
       </c>
@@ -3621,10 +4032,13 @@
         <v>248</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>242</v>
       </c>
@@ -3635,10 +4049,13 @@
         <v>249</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>242</v>
       </c>
@@ -3649,10 +4066,13 @@
         <v>250</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>242</v>
       </c>
@@ -3663,10 +4083,13 @@
         <v>251</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>242</v>
       </c>
@@ -3677,10 +4100,13 @@
         <v>252</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>341</v>
       </c>
@@ -3691,10 +4117,13 @@
         <v>263</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>341</v>
       </c>
@@ -3705,10 +4134,13 @@
         <v>264</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>287</v>
       </c>
@@ -3719,10 +4151,13 @@
         <v>417</v>
       </c>
       <c r="D143" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>287</v>
       </c>
@@ -3733,10 +4168,13 @@
         <v>265</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>314</v>
       </c>
@@ -3747,10 +4185,13 @@
         <v>266</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>287</v>
       </c>
@@ -3761,10 +4202,13 @@
         <v>267</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>287</v>
       </c>
@@ -3775,10 +4219,13 @@
         <v>268</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>287</v>
       </c>
@@ -3789,10 +4236,13 @@
         <v>269</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>341</v>
       </c>
@@ -3803,10 +4253,13 @@
         <v>416</v>
       </c>
       <c r="D149" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>341</v>
       </c>
@@ -3817,10 +4270,13 @@
         <v>270</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>341</v>
       </c>
@@ -3831,10 +4287,13 @@
         <v>271</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>330</v>
       </c>
@@ -3845,10 +4304,13 @@
         <v>272</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>287</v>
       </c>
@@ -3859,10 +4321,13 @@
         <v>273</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>287</v>
       </c>
@@ -3873,10 +4338,13 @@
         <v>274</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>314</v>
       </c>
@@ -3887,10 +4355,13 @@
         <v>275</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>341</v>
       </c>
@@ -3901,10 +4372,13 @@
         <v>276</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>330</v>
       </c>
@@ -3915,10 +4389,13 @@
         <v>277</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>314</v>
       </c>
@@ -3929,10 +4406,13 @@
         <v>278</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>314</v>
       </c>
@@ -3943,10 +4423,13 @@
         <v>279</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>287</v>
       </c>
@@ -3957,10 +4440,13 @@
         <v>280</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>341</v>
       </c>
@@ -3971,10 +4457,13 @@
         <v>281</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>314</v>
       </c>
@@ -3985,10 +4474,13 @@
         <v>282</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>287</v>
       </c>
@@ -3999,10 +4491,13 @@
         <v>397</v>
       </c>
       <c r="D163" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>287</v>
       </c>
@@ -4013,10 +4508,13 @@
         <v>283</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>314</v>
       </c>
@@ -4027,10 +4525,13 @@
         <v>284</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>287</v>
       </c>
@@ -4041,10 +4542,13 @@
         <v>285</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>287</v>
       </c>
@@ -4055,10 +4559,13 @@
         <v>286</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>314</v>
       </c>
@@ -4069,10 +4576,13 @@
         <v>312</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>314</v>
       </c>
@@ -4083,10 +4593,13 @@
         <v>313</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>314</v>
       </c>
@@ -4097,10 +4610,13 @@
         <v>391</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>330</v>
       </c>
@@ -4111,10 +4627,13 @@
         <v>318</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>330</v>
       </c>
@@ -4125,10 +4644,13 @@
         <v>319</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>330</v>
       </c>
@@ -4139,10 +4661,13 @@
         <v>320</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>330</v>
       </c>
@@ -4153,10 +4678,13 @@
         <v>321</v>
       </c>
       <c r="D174" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>330</v>
       </c>
@@ -4167,10 +4695,13 @@
         <v>322</v>
       </c>
       <c r="D175" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>330</v>
       </c>
@@ -4181,10 +4712,13 @@
         <v>323</v>
       </c>
       <c r="D176" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>330</v>
       </c>
@@ -4195,10 +4729,13 @@
         <v>331</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>330</v>
       </c>
@@ -4209,10 +4746,13 @@
         <v>332</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>330</v>
       </c>
@@ -4223,10 +4763,13 @@
         <v>333</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>330</v>
       </c>
@@ -4237,10 +4780,13 @@
         <v>334</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>330</v>
       </c>
@@ -4251,10 +4797,13 @@
         <v>335</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>341</v>
       </c>
@@ -4265,10 +4814,13 @@
         <v>342</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>341</v>
       </c>
@@ -4279,10 +4831,13 @@
         <v>343</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>383</v>
       </c>
@@ -4293,10 +4848,13 @@
         <v>344</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>383</v>
       </c>
@@ -4307,10 +4865,13 @@
         <v>345</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>341</v>
       </c>
@@ -4321,10 +4882,13 @@
         <v>346</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>341</v>
       </c>
@@ -4335,10 +4899,13 @@
         <v>347</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>341</v>
       </c>
@@ -4349,10 +4916,13 @@
         <v>348</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>341</v>
       </c>
@@ -4363,10 +4933,13 @@
         <v>349</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>341</v>
       </c>
@@ -4377,10 +4950,13 @@
         <v>350</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>360</v>
       </c>
@@ -4391,10 +4967,13 @@
         <v>361</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>360</v>
       </c>
@@ -4405,10 +4984,13 @@
         <v>362</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>360</v>
       </c>
@@ -4419,10 +5001,13 @@
         <v>363</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>383</v>
       </c>
@@ -4433,10 +5018,13 @@
         <v>364</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>360</v>
       </c>
@@ -4447,10 +5035,13 @@
         <v>365</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>360</v>
       </c>
@@ -4461,10 +5052,13 @@
         <v>366</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>360</v>
       </c>
@@ -4475,10 +5069,13 @@
         <v>367</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>360</v>
       </c>
@@ -4489,10 +5086,13 @@
         <v>368</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>360</v>
       </c>
@@ -4503,10 +5103,13 @@
         <v>369</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>360</v>
       </c>
@@ -4517,10 +5120,13 @@
         <v>370</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>360</v>
       </c>
@@ -4531,10 +5137,13 @@
         <v>371</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>383</v>
       </c>
@@ -4545,10 +5154,13 @@
         <v>384</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>383</v>
       </c>
@@ -4559,10 +5171,13 @@
         <v>385</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>383</v>
       </c>
@@ -4573,10 +5188,13 @@
         <v>386</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>34</v>
       </c>
@@ -4586,12 +5204,15 @@
       <c r="C205" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D205" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>430</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D205" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E205" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
